--- a/iot-plateform/iot-wlg-report/src/main/resources/excelTemplate/WLG产出报表模板.xlsx
+++ b/iot-plateform/iot-wlg-report/src/main/resources/excelTemplate/WLG产出报表模板.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>项目号</t>
   </si>
@@ -144,12 +144,18 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>当月客户需求</t>
+  </si>
+  <si>
+    <t>达成率</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,6 +211,14 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -242,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -263,6 +277,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -545,13 +562,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O2"/>
+  <dimension ref="B1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -559,90 +576,102 @@
     <col min="1" max="1" width="1.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="10.75" style="1" customWidth="1"/>
-    <col min="9" max="11" width="12.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.75" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.875" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.625" style="2"/>
+    <col min="4" max="4" width="11.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="10.75" style="1" customWidth="1"/>
+    <col min="11" max="13" width="12.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.75" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="2:17" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
     </row>
-    <row r="2" spans="2:15" ht="33" x14ac:dyDescent="0.2">
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="7" t="s">
+    <row r="2" spans="2:17" ht="33" x14ac:dyDescent="0.2">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="I2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="J2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="K2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="L2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="M2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="N2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="O2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="P2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="Q2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="E1:E2"/>
+  <mergeCells count="8">
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:Q1"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/iot-plateform/iot-wlg-report/src/main/resources/excelTemplate/WLG产出报表模板.xlsx
+++ b/iot-plateform/iot-wlg-report/src/main/resources/excelTemplate/WLG产出报表模板.xlsx
@@ -93,15 +93,20 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>当月客户需求</t>
+  </si>
+  <si>
+    <t>达成率</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>当月</t>
     </r>
@@ -110,9 +115,9 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="微软雅黑"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>累计产出</t>
     </r>
@@ -124,10 +129,9 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>前一天</t>
     </r>
@@ -136,19 +140,13 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="微软雅黑"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>数据</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当月客户需求</t>
-  </si>
-  <si>
-    <t>达成率</t>
   </si>
 </sst>
 </file>
@@ -180,14 +178,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
@@ -196,26 +186,31 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -256,30 +251,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -568,97 +560,97 @@
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
+      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="5.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="10.75" style="1" customWidth="1"/>
-    <col min="11" max="13" width="12.125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.75" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.625" style="2"/>
+    <col min="1" max="1" width="1.75" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="5.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="13.875" style="7" customWidth="1"/>
+    <col min="9" max="10" width="10.75" style="7" customWidth="1"/>
+    <col min="11" max="13" width="12.125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="9.75" style="7" customWidth="1"/>
+    <col min="15" max="15" width="10.625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="10.375" style="7" customWidth="1"/>
+    <col min="17" max="17" width="8.875" style="7" customWidth="1"/>
+    <col min="18" max="16384" width="8.625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="2:17" ht="33" x14ac:dyDescent="0.2">
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="3" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="1" t="s">
         <v>12</v>
       </c>
     </row>

--- a/iot-plateform/iot-wlg-report/src/main/resources/excelTemplate/WLG产出报表模板.xlsx
+++ b/iot-plateform/iot-wlg-report/src/main/resources/excelTemplate/WLG产出报表模板.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>项目号</t>
   </si>
@@ -27,125 +27,86 @@
     <t>项目名</t>
   </si>
   <si>
+    <t>计划累计产出（颗）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际累计转出（颗）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际转出达成率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WLG预计结存（颗）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计产出达成率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标产出数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际产出数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户需求达成率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户需求数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>G+P 当月累计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WLG 当月数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>模具</t>
-  </si>
-  <si>
-    <t>计划累计产出（颗）</t>
-  </si>
-  <si>
-    <t>实际累计产出（颗）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际累计产出达成率</t>
-  </si>
-  <si>
-    <t>计划产出（颗)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际产出（颗）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划投入模数（模）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际投入模数（模）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际产出模数（模）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预估产出（颗）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际产出达成率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>当月</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>计划总产出</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当月客户需求</t>
-  </si>
-  <si>
-    <t>达成率</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>当月</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>累计产出</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>前一天</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据</t>
-    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标
+达成率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标
+总产出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标交货
+数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际交货
+数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际
+交货率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际
+出货率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际结存
+数量</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -153,7 +114,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,32 +139,8 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -251,27 +188,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -554,116 +485,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q2"/>
+  <dimension ref="B1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.75" style="6" customWidth="1"/>
-    <col min="2" max="2" width="16" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="5.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="13.875" style="7" customWidth="1"/>
-    <col min="9" max="10" width="10.75" style="7" customWidth="1"/>
-    <col min="11" max="13" width="12.125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="9.75" style="7" customWidth="1"/>
-    <col min="15" max="15" width="10.625" style="7" customWidth="1"/>
-    <col min="16" max="16" width="10.375" style="7" customWidth="1"/>
-    <col min="17" max="17" width="8.875" style="7" customWidth="1"/>
-    <col min="18" max="16384" width="8.625" style="6"/>
+    <col min="1" max="1" width="1.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="6.375" style="1" customWidth="1"/>
+    <col min="9" max="10" width="10.75" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8.375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="8.625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="10" style="2" customWidth="1"/>
+    <col min="15" max="15" width="9.375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="8.5" style="2" customWidth="1"/>
+    <col min="17" max="17" width="8.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="8.625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
+      <c r="D1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
     </row>
-    <row r="2" spans="2:17" ht="33" x14ac:dyDescent="0.2">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="1" t="s">
+    <row r="2" spans="2:20" ht="33" x14ac:dyDescent="0.2">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>12</v>
+      <c r="S2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:Q1"/>
-    <mergeCell ref="G1:G2"/>
+  <mergeCells count="4">
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="N1:T1"/>
+    <mergeCell ref="D1:M1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/iot-plateform/iot-wlg-report/src/main/resources/excelTemplate/WLG产出报表模板.xlsx
+++ b/iot-plateform/iot-wlg-report/src/main/resources/excelTemplate/WLG产出报表模板.xlsx
@@ -488,7 +488,7 @@
   <dimension ref="B1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -510,7 +510,7 @@
     <col min="16" max="16" width="8.5" style="2" customWidth="1"/>
     <col min="17" max="17" width="8.375" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.25" style="1" customWidth="1"/>
     <col min="20" max="20" width="11.125" style="1" customWidth="1"/>
     <col min="21" max="21" width="8.625" style="1" customWidth="1"/>
     <col min="22" max="16384" width="8.625" style="1"/>

--- a/iot-plateform/iot-wlg-report/src/main/resources/excelTemplate/WLG产出报表模板.xlsx
+++ b/iot-plateform/iot-wlg-report/src/main/resources/excelTemplate/WLG产出报表模板.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>项目号</t>
   </si>
@@ -47,23 +47,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>目标产出数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际产出数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>客户需求达成率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>客户需求数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>G+P 当月累计</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -85,28 +73,34 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>目标交货
-数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际交货
-数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际
-交货率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际
-出货率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际结存
-数量</t>
+    <t>WLG 当日基础数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划产出（颗)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际产出（颗）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际转出模数（模）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划投入
+模数（模）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际投入
+模数（模）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际产出
+达成率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -188,12 +182,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -485,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:T2"/>
+  <dimension ref="B1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -507,61 +504,59 @@
     <col min="13" max="13" width="8.625" style="2" customWidth="1"/>
     <col min="14" max="14" width="10" style="2" customWidth="1"/>
     <col min="15" max="15" width="9.375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="8.5" style="2" customWidth="1"/>
+    <col min="16" max="16" width="11.125" style="2" customWidth="1"/>
     <col min="17" max="17" width="8.375" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.25" style="1" customWidth="1"/>
-    <col min="20" max="20" width="11.125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="8.625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.625" style="1"/>
+    <col min="19" max="19" width="9.5" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.625" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+    </row>
+    <row r="2" spans="2:19" ht="33" x14ac:dyDescent="0.2">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-    </row>
-    <row r="2" spans="2:20" ht="33" x14ac:dyDescent="0.2">
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>2</v>
@@ -578,33 +573,30 @@
       <c r="M2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S2" s="3" t="s">
+      <c r="Q2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="N1:T1"/>
+    <mergeCell ref="N1:S1"/>
     <mergeCell ref="D1:M1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
